--- a/network node codebook new.xlsx
+++ b/network node codebook new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\projects\Jovan model\model files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974AB85D-4A1C-452D-ADD5-4BB716C507ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C9AD56-DE2D-442E-866A-C840556A2775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20580" yWindow="564" windowWidth="17988" windowHeight="11124" tabRatio="555" activeTab="1" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
+    <workbookView xWindow="-20232" yWindow="912" windowWidth="17988" windowHeight="11124" tabRatio="555" activeTab="4" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Descritives" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="205">
   <si>
     <t>A</t>
   </si>
@@ -639,6 +639,12 @@
   <si>
     <t>H12B</t>
   </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
 </sst>
 </file>
 
@@ -2464,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDDC956-7FB6-499A-B173-13A92D89371D}">
-  <dimension ref="A1:DL118"/>
+  <dimension ref="A1:DL117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43419,356 +43425,6 @@
         <v>0</v>
       </c>
       <c r="DL117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-      <c r="T118">
-        <v>0</v>
-      </c>
-      <c r="U118">
-        <v>1</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
-      <c r="AA118">
-        <v>0</v>
-      </c>
-      <c r="AB118">
-        <v>0</v>
-      </c>
-      <c r="AC118">
-        <v>0</v>
-      </c>
-      <c r="AD118">
-        <v>0</v>
-      </c>
-      <c r="AE118">
-        <v>0</v>
-      </c>
-      <c r="AF118">
-        <v>0</v>
-      </c>
-      <c r="AG118">
-        <v>0</v>
-      </c>
-      <c r="AH118">
-        <v>0</v>
-      </c>
-      <c r="AI118">
-        <v>0</v>
-      </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
-      <c r="AK118">
-        <v>0</v>
-      </c>
-      <c r="AL118">
-        <v>0</v>
-      </c>
-      <c r="AM118">
-        <v>0</v>
-      </c>
-      <c r="AN118">
-        <v>0</v>
-      </c>
-      <c r="AO118">
-        <v>0</v>
-      </c>
-      <c r="AP118">
-        <v>0</v>
-      </c>
-      <c r="AQ118">
-        <v>0</v>
-      </c>
-      <c r="AR118">
-        <v>0</v>
-      </c>
-      <c r="AS118">
-        <v>0</v>
-      </c>
-      <c r="AT118">
-        <v>0</v>
-      </c>
-      <c r="AU118">
-        <v>0</v>
-      </c>
-      <c r="AV118">
-        <v>0</v>
-      </c>
-      <c r="AW118">
-        <v>0</v>
-      </c>
-      <c r="AX118">
-        <v>0</v>
-      </c>
-      <c r="AY118">
-        <v>0</v>
-      </c>
-      <c r="AZ118">
-        <v>0</v>
-      </c>
-      <c r="BA118">
-        <v>0</v>
-      </c>
-      <c r="BB118">
-        <v>0</v>
-      </c>
-      <c r="BC118">
-        <v>0</v>
-      </c>
-      <c r="BD118">
-        <v>0</v>
-      </c>
-      <c r="BE118">
-        <v>0</v>
-      </c>
-      <c r="BF118">
-        <v>0</v>
-      </c>
-      <c r="BG118">
-        <v>0</v>
-      </c>
-      <c r="BH118">
-        <v>0</v>
-      </c>
-      <c r="BI118">
-        <v>0</v>
-      </c>
-      <c r="BJ118">
-        <v>0</v>
-      </c>
-      <c r="BK118">
-        <v>0</v>
-      </c>
-      <c r="BL118">
-        <v>0</v>
-      </c>
-      <c r="BM118">
-        <v>0</v>
-      </c>
-      <c r="BN118">
-        <v>0</v>
-      </c>
-      <c r="BO118">
-        <v>0</v>
-      </c>
-      <c r="BP118">
-        <v>0</v>
-      </c>
-      <c r="BQ118">
-        <v>0</v>
-      </c>
-      <c r="BR118">
-        <v>0</v>
-      </c>
-      <c r="BS118">
-        <v>0</v>
-      </c>
-      <c r="BT118">
-        <v>0</v>
-      </c>
-      <c r="BU118">
-        <v>0</v>
-      </c>
-      <c r="BV118">
-        <v>0</v>
-      </c>
-      <c r="BW118">
-        <v>0</v>
-      </c>
-      <c r="BX118">
-        <v>0</v>
-      </c>
-      <c r="BY118">
-        <v>0</v>
-      </c>
-      <c r="BZ118">
-        <v>0</v>
-      </c>
-      <c r="CA118">
-        <v>0</v>
-      </c>
-      <c r="CB118">
-        <v>0</v>
-      </c>
-      <c r="CC118">
-        <v>0</v>
-      </c>
-      <c r="CD118">
-        <v>0</v>
-      </c>
-      <c r="CE118">
-        <v>0</v>
-      </c>
-      <c r="CF118">
-        <v>0</v>
-      </c>
-      <c r="CG118">
-        <v>0</v>
-      </c>
-      <c r="CH118">
-        <v>0</v>
-      </c>
-      <c r="CI118">
-        <v>0</v>
-      </c>
-      <c r="CJ118">
-        <v>0</v>
-      </c>
-      <c r="CK118">
-        <v>0</v>
-      </c>
-      <c r="CL118">
-        <v>0</v>
-      </c>
-      <c r="CM118">
-        <v>0</v>
-      </c>
-      <c r="CN118">
-        <v>0</v>
-      </c>
-      <c r="CO118">
-        <v>0</v>
-      </c>
-      <c r="CP118">
-        <v>0</v>
-      </c>
-      <c r="CQ118">
-        <v>0</v>
-      </c>
-      <c r="CR118">
-        <v>0</v>
-      </c>
-      <c r="CS118">
-        <v>0</v>
-      </c>
-      <c r="CT118">
-        <v>0</v>
-      </c>
-      <c r="CU118">
-        <v>0</v>
-      </c>
-      <c r="CV118">
-        <v>0</v>
-      </c>
-      <c r="CW118">
-        <v>0</v>
-      </c>
-      <c r="CX118">
-        <v>0</v>
-      </c>
-      <c r="CY118">
-        <v>0</v>
-      </c>
-      <c r="CZ118">
-        <v>0</v>
-      </c>
-      <c r="DA118">
-        <v>0</v>
-      </c>
-      <c r="DB118">
-        <v>0</v>
-      </c>
-      <c r="DC118">
-        <v>0</v>
-      </c>
-      <c r="DD118">
-        <v>0</v>
-      </c>
-      <c r="DE118">
-        <v>0</v>
-      </c>
-      <c r="DF118">
-        <v>0</v>
-      </c>
-      <c r="DG118">
-        <v>0</v>
-      </c>
-      <c r="DH118">
-        <v>0</v>
-      </c>
-      <c r="DI118">
-        <v>0</v>
-      </c>
-      <c r="DJ118">
-        <v>0</v>
-      </c>
-      <c r="DK118">
-        <v>0</v>
-      </c>
-      <c r="DL118">
         <v>0</v>
       </c>
     </row>
@@ -44063,12 +43719,18 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>187</v>
       </c>
@@ -44128,10 +43790,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6818038B-B2D2-4E56-B9DD-09D4F8560F2F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44139,7 +43801,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -44149,8 +43811,11 @@
       <c r="C1" t="s">
         <v>201</v>
       </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -44159,6 +43824,9 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/network node codebook new.xlsx
+++ b/network node codebook new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\projects\Jovan model\model files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C9AD56-DE2D-442E-866A-C840556A2775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774DFA04-352A-448C-91A6-332502DCB353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20232" yWindow="912" windowWidth="17988" windowHeight="11124" tabRatio="555" activeTab="4" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
+    <workbookView xWindow="-19476" yWindow="1284" windowWidth="14616" windowHeight="11124" tabRatio="555" activeTab="4" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Descritives" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="206">
   <si>
     <t>A</t>
   </si>
@@ -645,6 +645,9 @@
   <si>
     <t>alpha</t>
   </si>
+  <si>
+    <t>attrade</t>
+  </si>
 </sst>
 </file>
 
@@ -43790,10 +43793,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6818038B-B2D2-4E56-B9DD-09D4F8560F2F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43801,7 +43804,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -43814,8 +43817,11 @@
       <c r="D1" t="s">
         <v>204</v>
       </c>
+      <c r="E1" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500</v>
       </c>
@@ -43826,6 +43832,9 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
     </row>

--- a/network node codebook new.xlsx
+++ b/network node codebook new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\projects\Jovan model\model files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\projects\Jovan model\model2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774DFA04-352A-448C-91A6-332502DCB353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B4E026-F7AB-4D54-AC2B-F315D9A4A1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19476" yWindow="1284" windowWidth="14616" windowHeight="11124" tabRatio="555" activeTab="4" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
+    <workbookView xWindow="-18744" yWindow="1200" windowWidth="15876" windowHeight="11124" tabRatio="555" activeTab="4" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Descritives" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="204">
   <si>
     <t>A</t>
   </si>
@@ -616,13 +616,7 @@
     <t>II</t>
   </si>
   <si>
-    <t>Eat spots</t>
-  </si>
-  <si>
     <t>good view of outside, view of green wall, futuristic looking space</t>
-  </si>
-  <si>
-    <t>kitchen then eat?</t>
   </si>
   <si>
     <t>Time</t>
@@ -1009,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E5D670-5381-4B08-A6D5-9DF2B79217EB}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2382,7 +2376,7 @@
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2654,7 +2648,7 @@
         <v>176</v>
       </c>
       <c r="BF1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BG1" t="s">
         <v>177</v>
@@ -43438,10 +43432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26026E1-01D1-4FF2-B022-C7975D9B8BAE}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43453,7 +43447,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -43467,13 +43461,10 @@
         <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>41</v>
       </c>
@@ -43489,11 +43480,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>197</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>42</v>
       </c>
@@ -43501,7 +43489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>43</v>
       </c>
@@ -43509,7 +43497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>44</v>
       </c>
@@ -43517,57 +43505,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>55</v>
       </c>
@@ -43732,7 +43720,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>187</v>
@@ -43796,7 +43784,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43806,30 +43794,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>3</v>
